--- a/db/import/contacts.xlsx
+++ b/db/import/contacts.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="1440" windowWidth="24160" windowHeight="17580" tabRatio="500"/>
+    <workbookView xWindow="2040" yWindow="960" windowWidth="24160" windowHeight="17580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="125">
   <si>
     <t>account</t>
   </si>
@@ -31,6 +31,369 @@
   </si>
   <si>
     <t>title</t>
+  </si>
+  <si>
+    <t>Larry Tarr</t>
+  </si>
+  <si>
+    <t>Daryll Deets</t>
+  </si>
+  <si>
+    <t>Chuck Reiche</t>
+  </si>
+  <si>
+    <t>Adam Jones</t>
+  </si>
+  <si>
+    <t>Brad Tolley</t>
+  </si>
+  <si>
+    <t>Steve Brown</t>
+  </si>
+  <si>
+    <t>Heath Burge</t>
+  </si>
+  <si>
+    <t>Tim Westmoreland</t>
+  </si>
+  <si>
+    <t>Greg Hasty</t>
+  </si>
+  <si>
+    <t>Bill Hodges</t>
+  </si>
+  <si>
+    <t>Mike Hammer</t>
+  </si>
+  <si>
+    <t>Julius Nicols</t>
+  </si>
+  <si>
+    <t>Suzette Czura</t>
+  </si>
+  <si>
+    <t>Brad</t>
+  </si>
+  <si>
+    <t>Dan Klaus</t>
+  </si>
+  <si>
+    <t>service contact</t>
+  </si>
+  <si>
+    <t>Eric Heath</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R. L. Kennington</t>
+  </si>
+  <si>
+    <t>Sean Ireland</t>
+  </si>
+  <si>
+    <t>Brady Alvis</t>
+  </si>
+  <si>
+    <t>Tim Dayton</t>
+  </si>
+  <si>
+    <t>Tim Tew</t>
+  </si>
+  <si>
+    <t>Benjamin Tadros</t>
+  </si>
+  <si>
+    <t>Ted Dewitt</t>
+  </si>
+  <si>
+    <t>Connie Hardin</t>
+  </si>
+  <si>
+    <t>Luke Chandler</t>
+  </si>
+  <si>
+    <t>Keith</t>
+  </si>
+  <si>
+    <t>Stephen Rabon</t>
+  </si>
+  <si>
+    <t>Jay Beck</t>
+  </si>
+  <si>
+    <t>David Shetler</t>
+  </si>
+  <si>
+    <t>Bob  Porter</t>
+  </si>
+  <si>
+    <t>Douglas Delaney</t>
+  </si>
+  <si>
+    <t>John McAmis Jr.</t>
+  </si>
+  <si>
+    <t>Sherman</t>
+  </si>
+  <si>
+    <t>Steve Poladian</t>
+  </si>
+  <si>
+    <t>Jim Polak</t>
+  </si>
+  <si>
+    <t>Gordy Ivey</t>
+  </si>
+  <si>
+    <t>Gregory Peake</t>
+  </si>
+  <si>
+    <t>Chris Knapp</t>
+  </si>
+  <si>
+    <t>Chris Brock</t>
+  </si>
+  <si>
+    <t>David Houde</t>
+  </si>
+  <si>
+    <t>David Frey</t>
+  </si>
+  <si>
+    <t>Allen Latham</t>
+  </si>
+  <si>
+    <t>Nick Couch</t>
+  </si>
+  <si>
+    <t>Juan Schmidt</t>
+  </si>
+  <si>
+    <t>Jonathan Holland</t>
+  </si>
+  <si>
+    <t>Ben Schipper</t>
+  </si>
+  <si>
+    <t>Ashley Pittman</t>
+  </si>
+  <si>
+    <t>Vince</t>
+  </si>
+  <si>
+    <t>J.T. Skelton</t>
+  </si>
+  <si>
+    <t>Jim Reilly</t>
+  </si>
+  <si>
+    <t>Matt Graham</t>
+  </si>
+  <si>
+    <t>Stephen Emberson</t>
+  </si>
+  <si>
+    <t>Ralph Denuzzio, Jr.</t>
+  </si>
+  <si>
+    <t>Brian Brannon</t>
+  </si>
+  <si>
+    <t>Ralph  Denuzzio, Jr.</t>
+  </si>
+  <si>
+    <t>Jonathan Dunlap</t>
+  </si>
+  <si>
+    <t>Clint Travis</t>
+  </si>
+  <si>
+    <t>Manny Rodriguez</t>
+  </si>
+  <si>
+    <t>Service Contact</t>
+  </si>
+  <si>
+    <t>Jim Edwards</t>
+  </si>
+  <si>
+    <t>Robbie  Huffman</t>
+  </si>
+  <si>
+    <t>Jeff Milles</t>
+  </si>
+  <si>
+    <t>Allen Hill</t>
+  </si>
+  <si>
+    <t>James King</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Martha </t>
+  </si>
+  <si>
+    <t>Linden Holson</t>
+  </si>
+  <si>
+    <t>Brad Payne</t>
+  </si>
+  <si>
+    <t>Allen  Bookhart</t>
+  </si>
+  <si>
+    <t>Steve Chesin</t>
+  </si>
+  <si>
+    <t>Steve Eakins</t>
+  </si>
+  <si>
+    <t>Cornelia  Armbruster</t>
+  </si>
+  <si>
+    <t>Oscar Madrazo</t>
+  </si>
+  <si>
+    <t>Tony Nelson</t>
+  </si>
+  <si>
+    <t>Matt Garrison</t>
+  </si>
+  <si>
+    <t>Fred Pushman</t>
+  </si>
+  <si>
+    <t>Rob Curry</t>
+  </si>
+  <si>
+    <t>Daniel Walker</t>
+  </si>
+  <si>
+    <t>Dustin Lane</t>
+  </si>
+  <si>
+    <t>Martha</t>
+  </si>
+  <si>
+    <t>Ryan Duke</t>
+  </si>
+  <si>
+    <t>Mark Aggerholm</t>
+  </si>
+  <si>
+    <t>Tom Brochu</t>
+  </si>
+  <si>
+    <t>Mike Weaver</t>
+  </si>
+  <si>
+    <t>Wayne Bennett</t>
+  </si>
+  <si>
+    <t>Elvin Byrd</t>
+  </si>
+  <si>
+    <t>Scott</t>
+  </si>
+  <si>
+    <t>Paul</t>
+  </si>
+  <si>
+    <t>Alan Duke</t>
+  </si>
+  <si>
+    <t>Fred Waugh</t>
+  </si>
+  <si>
+    <t>Stan</t>
+  </si>
+  <si>
+    <t>DAVE TAYLOR</t>
+  </si>
+  <si>
+    <t>Doug Morlan</t>
+  </si>
+  <si>
+    <t>Bill  Murphree</t>
+  </si>
+  <si>
+    <t>Tom Smith</t>
+  </si>
+  <si>
+    <t>Klay Walker</t>
+  </si>
+  <si>
+    <t>Dave Massie</t>
+  </si>
+  <si>
+    <t>Job Raider</t>
+  </si>
+  <si>
+    <t>Harold Bruce</t>
+  </si>
+  <si>
+    <t>Troy Hochstein</t>
+  </si>
+  <si>
+    <t>Wade Brannon</t>
+  </si>
+  <si>
+    <t>Trevor Burlingame</t>
+  </si>
+  <si>
+    <t>Jim Widmann</t>
+  </si>
+  <si>
+    <t>A. C. Tackett</t>
+  </si>
+  <si>
+    <t>Bob</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
+    <t>Nick Haddon</t>
+  </si>
+  <si>
+    <t>John Wise</t>
+  </si>
+  <si>
+    <t>Henry Miranda</t>
+  </si>
+  <si>
+    <t>Lonnie</t>
+  </si>
+  <si>
+    <t>Jancy Wong</t>
+  </si>
+  <si>
+    <t>Keit Tipton</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Gabe</t>
+  </si>
+  <si>
+    <t>Lance Brown</t>
+  </si>
+  <si>
+    <t>Jack Calandros</t>
+  </si>
+  <si>
+    <t>Isaac Wilson</t>
+  </si>
+  <si>
+    <t>Sara Sato</t>
+  </si>
+  <si>
+    <t>John Woodhull</t>
+  </si>
+  <si>
+    <t>Thomas M Malchak</t>
+  </si>
+  <si>
+    <t>Ryan Griggs</t>
   </si>
 </sst>
 </file>
@@ -399,10 +762,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E132" sqref="E132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -425,30 +788,1562 @@
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
         <v>1</v>
       </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
         <v>1</v>
       </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
         <v>1</v>
       </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
         <v>1</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36">
+        <v>35</v>
+      </c>
+      <c r="C36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37">
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <v>37</v>
+      </c>
+      <c r="C38" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39">
+        <v>38</v>
+      </c>
+      <c r="C39" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40">
+        <v>39</v>
+      </c>
+      <c r="C40" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41">
+        <v>40</v>
+      </c>
+      <c r="C41" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42">
+        <v>41</v>
+      </c>
+      <c r="C42" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43">
+        <v>42</v>
+      </c>
+      <c r="C43" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44">
+        <v>43</v>
+      </c>
+      <c r="C44" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45">
+        <v>44</v>
+      </c>
+      <c r="C45" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46">
+        <v>45</v>
+      </c>
+      <c r="C46" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47">
+        <v>47</v>
+      </c>
+      <c r="C47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48">
+        <v>48</v>
+      </c>
+      <c r="C48" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49">
+        <v>49</v>
+      </c>
+      <c r="C49" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50">
+        <v>50</v>
+      </c>
+      <c r="C50" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51">
+        <v>1</v>
+      </c>
+      <c r="B51">
+        <v>51</v>
+      </c>
+      <c r="C51" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52">
+        <v>1</v>
+      </c>
+      <c r="B52">
+        <v>52</v>
+      </c>
+      <c r="C52" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53">
+        <v>1</v>
+      </c>
+      <c r="B53">
+        <v>53</v>
+      </c>
+      <c r="C53" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54">
+        <v>1</v>
+      </c>
+      <c r="B54">
+        <v>54</v>
+      </c>
+      <c r="C54" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55">
+        <v>1</v>
+      </c>
+      <c r="B55">
+        <v>55</v>
+      </c>
+      <c r="C55" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56">
+        <v>1</v>
+      </c>
+      <c r="B56">
+        <v>56</v>
+      </c>
+      <c r="C56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57">
+        <v>1</v>
+      </c>
+      <c r="B57">
+        <v>57</v>
+      </c>
+      <c r="C57" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58">
+        <v>1</v>
+      </c>
+      <c r="B58">
+        <v>58</v>
+      </c>
+      <c r="C58" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59">
+        <v>1</v>
+      </c>
+      <c r="B59">
+        <v>59</v>
+      </c>
+      <c r="C59" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60">
+        <v>1</v>
+      </c>
+      <c r="B60">
+        <v>60</v>
+      </c>
+      <c r="C60" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61">
+        <v>1</v>
+      </c>
+      <c r="B61">
+        <v>61</v>
+      </c>
+      <c r="C61" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62">
+        <v>1</v>
+      </c>
+      <c r="B62">
+        <v>62</v>
+      </c>
+      <c r="C62" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63">
+        <v>1</v>
+      </c>
+      <c r="B63">
+        <v>63</v>
+      </c>
+      <c r="C63" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64">
+        <v>1</v>
+      </c>
+      <c r="B64">
+        <v>64</v>
+      </c>
+      <c r="C64" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65">
+        <v>1</v>
+      </c>
+      <c r="B65">
+        <v>65</v>
+      </c>
+      <c r="C65" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66">
+        <v>1</v>
+      </c>
+      <c r="B66">
+        <v>66</v>
+      </c>
+      <c r="C66" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67">
+        <v>1</v>
+      </c>
+      <c r="B67">
+        <v>67</v>
+      </c>
+      <c r="C67" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68">
+        <v>1</v>
+      </c>
+      <c r="B68">
+        <v>68</v>
+      </c>
+      <c r="C68" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69">
+        <v>1</v>
+      </c>
+      <c r="B69">
+        <v>69</v>
+      </c>
+      <c r="C69" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70">
+        <v>1</v>
+      </c>
+      <c r="B70">
+        <v>70</v>
+      </c>
+      <c r="C70" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71">
+        <v>1</v>
+      </c>
+      <c r="B71">
+        <v>71</v>
+      </c>
+      <c r="C71" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72">
+        <v>1</v>
+      </c>
+      <c r="B72">
+        <v>72</v>
+      </c>
+      <c r="C72" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73">
+        <v>1</v>
+      </c>
+      <c r="B73">
+        <v>73</v>
+      </c>
+      <c r="C73" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74">
+        <v>1</v>
+      </c>
+      <c r="B74">
+        <v>74</v>
+      </c>
+      <c r="C74" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75">
+        <v>1</v>
+      </c>
+      <c r="B75">
+        <v>75</v>
+      </c>
+      <c r="C75" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76">
+        <v>1</v>
+      </c>
+      <c r="B76">
+        <v>76</v>
+      </c>
+      <c r="C76" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77">
+        <v>1</v>
+      </c>
+      <c r="B77">
+        <v>77</v>
+      </c>
+      <c r="C77" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78">
+        <v>1</v>
+      </c>
+      <c r="B78">
+        <v>78</v>
+      </c>
+      <c r="C78" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79">
+        <v>1</v>
+      </c>
+      <c r="B79">
+        <v>79</v>
+      </c>
+      <c r="C79" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80">
+        <v>1</v>
+      </c>
+      <c r="B80">
+        <v>80</v>
+      </c>
+      <c r="C80" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81">
+        <v>1</v>
+      </c>
+      <c r="B81">
+        <v>81</v>
+      </c>
+      <c r="C81" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82">
+        <v>1</v>
+      </c>
+      <c r="B82">
+        <v>82</v>
+      </c>
+      <c r="C82" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83">
+        <v>1</v>
+      </c>
+      <c r="B83">
+        <v>83</v>
+      </c>
+      <c r="C83" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84">
+        <v>1</v>
+      </c>
+      <c r="B84">
+        <v>84</v>
+      </c>
+      <c r="C84" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85">
+        <v>1</v>
+      </c>
+      <c r="B85">
+        <v>85</v>
+      </c>
+      <c r="C85" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86">
+        <v>1</v>
+      </c>
+      <c r="B86">
+        <v>86</v>
+      </c>
+      <c r="C86" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87">
+        <v>1</v>
+      </c>
+      <c r="B87">
+        <v>87</v>
+      </c>
+      <c r="C87" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88">
+        <v>1</v>
+      </c>
+      <c r="B88">
+        <v>88</v>
+      </c>
+      <c r="C88" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89">
+        <v>1</v>
+      </c>
+      <c r="B89">
+        <v>89</v>
+      </c>
+      <c r="C89" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90">
+        <v>1</v>
+      </c>
+      <c r="B90">
+        <v>90</v>
+      </c>
+      <c r="C90" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91">
+        <v>1</v>
+      </c>
+      <c r="B91">
+        <v>91</v>
+      </c>
+      <c r="C91" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92">
+        <v>1</v>
+      </c>
+      <c r="B92">
+        <v>92</v>
+      </c>
+      <c r="C92" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93">
+        <v>1</v>
+      </c>
+      <c r="B93">
+        <v>93</v>
+      </c>
+      <c r="C93" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94">
+        <v>1</v>
+      </c>
+      <c r="B94">
+        <v>94</v>
+      </c>
+      <c r="C94" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95">
+        <v>1</v>
+      </c>
+      <c r="B95">
+        <v>95</v>
+      </c>
+      <c r="C95" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96">
+        <v>1</v>
+      </c>
+      <c r="B96">
+        <v>96</v>
+      </c>
+      <c r="C96" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97">
+        <v>1</v>
+      </c>
+      <c r="B97">
+        <v>97</v>
+      </c>
+      <c r="C97" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98">
+        <v>1</v>
+      </c>
+      <c r="B98">
+        <v>98</v>
+      </c>
+      <c r="C98" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99">
+        <v>1</v>
+      </c>
+      <c r="B99">
+        <v>99</v>
+      </c>
+      <c r="C99" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100">
+        <v>1</v>
+      </c>
+      <c r="B100">
+        <v>100</v>
+      </c>
+      <c r="C100" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101">
+        <v>1</v>
+      </c>
+      <c r="B101">
+        <v>101</v>
+      </c>
+      <c r="C101" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102">
+        <v>1</v>
+      </c>
+      <c r="B102">
+        <v>102</v>
+      </c>
+      <c r="C102" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103">
+        <v>1</v>
+      </c>
+      <c r="B103">
+        <v>103</v>
+      </c>
+      <c r="C103" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104">
+        <v>1</v>
+      </c>
+      <c r="B104">
+        <v>104</v>
+      </c>
+      <c r="C104" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105">
+        <v>1</v>
+      </c>
+      <c r="B105">
+        <v>105</v>
+      </c>
+      <c r="C105" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106">
+        <v>1</v>
+      </c>
+      <c r="B106">
+        <v>106</v>
+      </c>
+      <c r="C106" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107">
+        <v>1</v>
+      </c>
+      <c r="B107">
+        <v>107</v>
+      </c>
+      <c r="C107" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108">
+        <v>1</v>
+      </c>
+      <c r="B108">
+        <v>108</v>
+      </c>
+      <c r="C108" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109">
+        <v>1</v>
+      </c>
+      <c r="B109">
+        <v>109</v>
+      </c>
+      <c r="C109" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110">
+        <v>1</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+      <c r="C110" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111">
+        <v>1</v>
+      </c>
+      <c r="B111">
+        <v>2</v>
+      </c>
+      <c r="C111" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112">
+        <v>1</v>
+      </c>
+      <c r="B112">
+        <v>3</v>
+      </c>
+      <c r="C112" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113">
+        <v>1</v>
+      </c>
+      <c r="B113">
+        <v>4</v>
+      </c>
+      <c r="C113" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114">
+        <v>1</v>
+      </c>
+      <c r="B114">
+        <v>5</v>
+      </c>
+      <c r="C114" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115">
+        <v>1</v>
+      </c>
+      <c r="B115">
+        <v>6</v>
+      </c>
+      <c r="C115" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116">
+        <v>1</v>
+      </c>
+      <c r="B116">
+        <v>7</v>
+      </c>
+      <c r="C116" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117">
+        <v>1</v>
+      </c>
+      <c r="B117">
+        <v>8</v>
+      </c>
+      <c r="C117" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118">
+        <v>1</v>
+      </c>
+      <c r="B118">
+        <v>9</v>
+      </c>
+      <c r="C118" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119">
+        <v>1</v>
+      </c>
+      <c r="B119">
+        <v>10</v>
+      </c>
+      <c r="C119" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120">
+        <v>1</v>
+      </c>
+      <c r="B120">
+        <v>11</v>
+      </c>
+      <c r="C120" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121">
+        <v>1</v>
+      </c>
+      <c r="B121">
+        <v>12</v>
+      </c>
+      <c r="C121" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122">
+        <v>1</v>
+      </c>
+      <c r="B122">
+        <v>13</v>
+      </c>
+      <c r="C122" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123">
+        <v>1</v>
+      </c>
+      <c r="B123">
+        <v>14</v>
+      </c>
+      <c r="C123" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124">
+        <v>1</v>
+      </c>
+      <c r="B124">
+        <v>15</v>
+      </c>
+      <c r="C124" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125">
+        <v>1</v>
+      </c>
+      <c r="B125">
+        <v>16</v>
+      </c>
+      <c r="C125" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126">
+        <v>1</v>
+      </c>
+      <c r="B126">
+        <v>17</v>
+      </c>
+      <c r="C126" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127">
+        <v>1</v>
+      </c>
+      <c r="B127">
+        <v>18</v>
+      </c>
+      <c r="C127" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128">
+        <v>1</v>
+      </c>
+      <c r="B128">
+        <v>19</v>
+      </c>
+      <c r="C128" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129">
+        <v>1</v>
+      </c>
+      <c r="B129">
+        <v>20</v>
+      </c>
+      <c r="C129" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130">
+        <v>1</v>
+      </c>
+      <c r="B130">
+        <v>21</v>
+      </c>
+      <c r="C130" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131">
+        <v>1</v>
+      </c>
+      <c r="B131">
+        <v>22</v>
+      </c>
+      <c r="C131" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132">
+        <v>1</v>
+      </c>
+      <c r="B132">
+        <v>23</v>
+      </c>
+      <c r="C132" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133">
+        <v>1</v>
+      </c>
+      <c r="B133">
+        <v>24</v>
+      </c>
+      <c r="C133" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134">
+        <v>1</v>
+      </c>
+      <c r="B134">
+        <v>25</v>
+      </c>
+      <c r="C134" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135">
+        <v>1</v>
+      </c>
+      <c r="B135">
+        <v>26</v>
+      </c>
+      <c r="C135" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136">
+        <v>1</v>
+      </c>
+      <c r="B136">
+        <v>27</v>
+      </c>
+      <c r="C136" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137">
+        <v>1</v>
+      </c>
+      <c r="B137">
+        <v>28</v>
+      </c>
+      <c r="C137" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138">
+        <v>1</v>
+      </c>
+      <c r="B138">
+        <v>29</v>
+      </c>
+      <c r="C138" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139">
+        <v>1</v>
+      </c>
+      <c r="B139">
+        <v>30</v>
+      </c>
+      <c r="C139" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140">
+        <v>1</v>
+      </c>
+      <c r="B140">
+        <v>31</v>
+      </c>
+      <c r="C140" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141">
+        <v>1</v>
+      </c>
+      <c r="B141">
+        <v>32</v>
+      </c>
+      <c r="C141" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142">
+        <v>1</v>
+      </c>
+      <c r="B142">
+        <v>33</v>
+      </c>
+      <c r="C142" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143">
+        <v>1</v>
+      </c>
+      <c r="B143">
+        <v>34</v>
+      </c>
+      <c r="C143" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
